--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.015.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.015.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3C57D5-CC55-44D8-8022-D9BF13880A54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0395C9E-5570-4644-B509-79CD56922DFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.015.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0395C9E-5570-4644-B509-79CD56922DFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C698E8-C853-4A16-8CC2-39A706EB7954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.015.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C698E8-C853-4A16-8CC2-39A706EB7954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4C5CC5-3B0E-4AD6-9F5C-2441E437006A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.015.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4C5CC5-3B0E-4AD6-9F5C-2441E437006A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6C8DB3-9FBC-4B3F-B556-5C92E4EB78F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.015.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6C8DB3-9FBC-4B3F-B556-5C92E4EB78F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1398701D-229D-4AEE-B97B-7E36256EBA53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.015.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1398701D-229D-4AEE-B97B-7E36256EBA53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF541E7D-C629-48BF-A781-E7B120B5BF41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.015.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.015.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF541E7D-C629-48BF-A781-E7B120B5BF41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884BC8E6-8661-49C2-919D-70F7F6CF5181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.015.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884BC8E6-8661-49C2-919D-70F7F6CF5181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00612C33-61B9-4E29-88E9-4BDAD9974A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>
